--- a/biology/Botanique/Quercus_lobata/Quercus_lobata.xlsx
+++ b/biology/Botanique/Quercus_lobata/Quercus_lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne blanc de Californie (Quercus lobata) est le plus grand des chênes d'Amérique du Nord. Il pousse dans les vallées de l'intérieur de la Californie et certains spécimens atteignent l'âge de 600 ans.
 </t>
